--- a/pytket/Excel_Results/tket_depth.xlsx
+++ b/pytket/Excel_Results/tket_depth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aditya/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315DA87B-9724-184A-85E7-B8E2E82E7BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E364954-CBFA-DF4D-BEBE-1FF8D05D793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15080" xr2:uid="{731CD399-2E78-E44B-887B-F560C021FDEF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{731CD399-2E78-E44B-887B-F560C021FDEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,8 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,154 +663,154 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36771</c:v>
+                  <c:v>32323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4697</c:v>
+                  <c:v>4535</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4213</c:v>
+                  <c:v>3829</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9152</c:v>
+                  <c:v>8129</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6121</c:v>
+                  <c:v>5507</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7335</c:v>
+                  <c:v>6480</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>714</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>324</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15177</c:v>
+                  <c:v>13118</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2219</c:v>
+                  <c:v>1987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>325</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>146</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>664</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>179</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>73</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>115</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>78</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6723</c:v>
+                  <c:v>5807</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>290</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2378</c:v>
+                  <c:v>2139</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>95</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>190</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>365</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>349</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>132036</c:v>
+                  <c:v>113657</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>92</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>103</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2100</c:v>
+                  <c:v>1906</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>489</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>25021</c:v>
+                  <c:v>22687</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>115</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3356</c:v>
+                  <c:v>2912</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>63</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>194</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7116</c:v>
+                  <c:v>6409</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1297</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4599</c:v>
+                  <c:v>4221</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>231</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>363</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>93708</c:v>
+                  <c:v>84199</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>44</c:v>
@@ -816,40 +819,40 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>337</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>534</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>12853</c:v>
+                  <c:v>11624</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7815</c:v>
+                  <c:v>7221</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1195</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>175</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1195</c:v>
+                  <c:v>1057</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>24990</c:v>
+                  <c:v>21942</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>167</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>5</c:v>
@@ -858,19 +861,19 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>136</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>85</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>166</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19109</c:v>
+                  <c:v>16731</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>30</c:v>
@@ -879,28 +882,28 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>102</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>126</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>278</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17471</c:v>
+                  <c:v>15185</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>168</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>11591</c:v>
+                  <c:v>9915</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>55</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>111304</c:v>
+                  <c:v>100025</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>11</c:v>
@@ -915,103 +918,103 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>173</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>167</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>172</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>47</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>147347</c:v>
+                  <c:v>128519</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>567</c:v>
+                  <c:v>467</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>16844</c:v>
+                  <c:v>14575</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>47</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>405</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>933</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>224</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>56357</c:v>
+                  <c:v>51859</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>207</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>58</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>787</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>111</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>125</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>849</c:v>
+                  <c:v>781</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1356</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>165</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>14622</c:v>
+                  <c:v>13183</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>296126</c:v>
+                  <c:v>265435</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>288</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>213</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3718</c:v>
+                  <c:v>3354</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>167</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>24990</c:v>
+                  <c:v>21942</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>117</c:v>
@@ -1020,115 +1023,115 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>346107</c:v>
+                  <c:v>304256</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>841</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>206</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>25603</c:v>
+                  <c:v>22904</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>81</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>45245</c:v>
+                  <c:v>40556</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>93874</c:v>
+                  <c:v>80944</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>63</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>257157</c:v>
+                  <c:v>258488</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>63</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>29</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>117</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>50428</c:v>
+                  <c:v>42948</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>255</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>131807</c:v>
+                  <c:v>117972</c:v>
                 </c:pt>
                 <c:pt idx="141">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>283</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>23416</c:v>
+                  <c:v>21116</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2169</c:v>
+                  <c:v>1907</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>93</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>42035</c:v>
+                  <c:v>36822</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>437</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>39</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>121585</c:v>
+                  <c:v>106631</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>679</c:v>
+                  <c:v>617</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>11400</c:v>
+                  <c:v>10131</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2703</c:v>
+                  <c:v>2443</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>394</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>179</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,478 +1683,478 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44069</c:v>
+                  <c:v>39721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6047</c:v>
+                  <c:v>5507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5380</c:v>
+                  <c:v>4949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12017</c:v>
+                  <c:v>10708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7687</c:v>
+                  <c:v>6778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9306</c:v>
+                  <c:v>8288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>874</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>366</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18759</c:v>
+                  <c:v>16034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2713</c:v>
+                  <c:v>2358</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>146</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>391</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>763</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>99</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8334</c:v>
+                  <c:v>7458</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>338</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3064</c:v>
+                  <c:v>2623</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>118</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>245</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>439</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>81</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>396</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>156506</c:v>
+                  <c:v>132800</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>127</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>132</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2621</c:v>
+                  <c:v>2288</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>508</c:v>
+                  <c:v>453</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>32745</c:v>
+                  <c:v>28566</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>127</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4216</c:v>
+                  <c:v>3934</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>216</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8747</c:v>
+                  <c:v>7588</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>34</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1631</c:v>
+                  <c:v>1263</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5668</c:v>
+                  <c:v>4964</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>272</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>52</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>477</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>113025</c:v>
+                  <c:v>101820</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>57</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>374</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>641</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>17037</c:v>
+                  <c:v>14532</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10079</c:v>
+                  <c:v>9113</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1440</c:v>
+                  <c:v>1373</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>201</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27303</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20697</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17790</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13056</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>114440</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>30870</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>23102</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>20757</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>14659</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>139679</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>29</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>219</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>17</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>201</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>207</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>33</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>69</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>182639</c:v>
+                  <c:v>157248</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>639</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>20316</c:v>
+                  <c:v>18550</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>67</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>502</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1185</c:v>
+                  <c:v>1015</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>276</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>68935</c:v>
+                  <c:v>58388</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>233</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>75</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1036</c:v>
+                  <c:v>945</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>128</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>90</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>32</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1121</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>33</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1717</c:v>
+                  <c:v>1489</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>201</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>18511</c:v>
+                  <c:v>16145</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>362713</c:v>
+                  <c:v>296199</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>57</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>345</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>263</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4504</c:v>
+                  <c:v>4028</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>196</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>30870</c:v>
+                  <c:v>27303</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>144</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>415649</c:v>
+                  <c:v>348939</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>33</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1019</c:v>
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>22</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>242</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>32816</c:v>
+                  <c:v>28375</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>97</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>57469</c:v>
+                  <c:v>51645</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>115230</c:v>
+                  <c:v>97886</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>71</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>311212</c:v>
+                  <c:v>309992</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>74</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="135">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>53952</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>155992</c:v>
+                </c:pt>
+                <c:pt idx="141">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="136">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>59863</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>170285</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>46</c:v>
-                </c:pt>
                 <c:pt idx="142">
-                  <c:v>324</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>30079</c:v>
+                  <c:v>27888</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2631</c:v>
+                  <c:v>2295</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>58</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>90</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>33</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>49103</c:v>
+                  <c:v>44935</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>543</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>154</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>49</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>149261</c:v>
+                  <c:v>121930</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>807</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>14067</c:v>
+                  <c:v>12321</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3322</c:v>
+                  <c:v>3010</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>479</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>209</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2218,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2100"/>
                   <a:t>Circuit Depth</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2100" baseline="0"/>
                   <a:t> In</a:t>
                 </a:r>
               </a:p>
@@ -2336,7 +2339,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2100"/>
                   <a:t>Circuit Depth Out</a:t>
                 </a:r>
               </a:p>
@@ -2422,6 +2425,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2435,7 +2446,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3056,15 +3067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3391,1764 +3402,1765 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7D9C36-EAE2-D749-B7C4-67834929D6EB}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>6</v>
+      <c r="C2" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>127</v>
       </c>
-      <c r="B3">
-        <v>153</v>
-      </c>
-      <c r="C3">
-        <v>189</v>
+      <c r="B3" s="1">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1">
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>77</v>
       </c>
-      <c r="B4">
-        <v>122</v>
-      </c>
-      <c r="C4">
-        <v>152</v>
+      <c r="B4" s="1">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>27824</v>
       </c>
-      <c r="B5">
-        <v>36771</v>
-      </c>
-      <c r="C5">
-        <v>44069</v>
+      <c r="B5" s="1">
+        <v>32323</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39721</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3849</v>
       </c>
-      <c r="B6">
-        <v>4697</v>
-      </c>
-      <c r="C6">
-        <v>6047</v>
+      <c r="B6" s="1">
+        <v>4535</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5507</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>3388</v>
       </c>
-      <c r="B7">
-        <v>4213</v>
-      </c>
-      <c r="C7">
-        <v>5380</v>
+      <c r="B7" s="1">
+        <v>3829</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4949</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7263</v>
       </c>
-      <c r="B8">
-        <v>9152</v>
-      </c>
-      <c r="C8">
-        <v>12017</v>
+      <c r="B8" s="1">
+        <v>8129</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10708</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>4821</v>
       </c>
-      <c r="B9">
-        <v>6121</v>
-      </c>
-      <c r="C9">
-        <v>7687</v>
+      <c r="B9" s="1">
+        <v>5507</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6778</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>5865</v>
       </c>
-      <c r="B10">
-        <v>7335</v>
-      </c>
-      <c r="C10">
-        <v>9306</v>
+      <c r="B10" s="1">
+        <v>6480</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8288</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>571</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>625</v>
+      </c>
+      <c r="C11" s="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>257</v>
+      </c>
+      <c r="B12" s="1">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12089</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13118</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16034</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1783</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1987</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>255</v>
+      </c>
+      <c r="B17" s="1">
+        <v>285</v>
+      </c>
+      <c r="C17" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>106</v>
+      </c>
+      <c r="B18" s="1">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>510</v>
+      </c>
+      <c r="B19" s="1">
+        <v>614</v>
+      </c>
+      <c r="C19" s="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>126</v>
+      </c>
+      <c r="B20" s="1">
+        <v>149</v>
+      </c>
+      <c r="C20" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>5244</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5807</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>228</v>
+      </c>
+      <c r="B25" s="1">
+        <v>240</v>
+      </c>
+      <c r="C25" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1841</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2139</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>164</v>
+      </c>
+      <c r="B29" s="1">
+        <v>176</v>
+      </c>
+      <c r="C29" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>287</v>
+      </c>
+      <c r="B30" s="1">
+        <v>309</v>
+      </c>
+      <c r="C30" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>263</v>
+      </c>
+      <c r="B32" s="1">
+        <v>315</v>
+      </c>
+      <c r="C32" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>99587</v>
+      </c>
+      <c r="B33" s="1">
+        <v>113657</v>
+      </c>
+      <c r="C33" s="1">
+        <v>132800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1646</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1906</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>339</v>
+      </c>
+      <c r="B37" s="1">
+        <v>383</v>
+      </c>
+      <c r="C37" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>19565</v>
+      </c>
+      <c r="B38" s="1">
+        <v>22687</v>
+      </c>
+      <c r="C38" s="1">
+        <v>28566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1">
+        <v>104</v>
+      </c>
+      <c r="C39" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2678</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2912</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>137</v>
+      </c>
+      <c r="B42" s="1">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>5460</v>
+      </c>
+      <c r="B45" s="1">
+        <v>6409</v>
+      </c>
+      <c r="C45" s="1">
+        <v>7588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>23</v>
+      </c>
+      <c r="B46" s="1">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1163</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>3738</v>
+      </c>
+      <c r="B48" s="1">
+        <v>4221</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>192</v>
+      </c>
+      <c r="B49" s="1">
+        <v>213</v>
+      </c>
+      <c r="C49" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>304</v>
+      </c>
+      <c r="B51" s="1">
+        <v>350</v>
+      </c>
+      <c r="C51" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>70704</v>
+      </c>
+      <c r="B52" s="1">
+        <v>84199</v>
+      </c>
+      <c r="C52" s="1">
+        <v>101820</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>42</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>253</v>
+      </c>
+      <c r="B55" s="1">
+        <v>272</v>
+      </c>
+      <c r="C55" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1">
+        <v>71</v>
+      </c>
+      <c r="C56" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>437</v>
+      </c>
+      <c r="B57" s="1">
+        <v>463</v>
+      </c>
+      <c r="C57" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>10330</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11624</v>
+      </c>
+      <c r="C58" s="1">
+        <v>14532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>6376</v>
+      </c>
+      <c r="B59" s="1">
+        <v>7221</v>
+      </c>
+      <c r="C59" s="1">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>942</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1057</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>132</v>
+      </c>
+      <c r="B61" s="1">
+        <v>142</v>
+      </c>
+      <c r="C61" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>23</v>
+      </c>
+      <c r="B62" s="1">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>942</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1057</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>23</v>
+      </c>
+      <c r="B64" s="1">
+        <v>21</v>
+      </c>
+      <c r="C64" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>19237</v>
+      </c>
+      <c r="B65" s="1">
+        <v>21942</v>
+      </c>
+      <c r="C65" s="1">
+        <v>27303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>141</v>
+      </c>
+      <c r="B66" s="1">
+        <v>148</v>
+      </c>
+      <c r="C66" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>52</v>
+      </c>
+      <c r="B69" s="1">
+        <v>55</v>
+      </c>
+      <c r="C69" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>110</v>
+      </c>
+      <c r="B70" s="1">
+        <v>117</v>
+      </c>
+      <c r="C70" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>58</v>
+      </c>
+      <c r="B71" s="1">
+        <v>81</v>
+      </c>
+      <c r="C71" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>134</v>
+      </c>
+      <c r="B72" s="1">
+        <v>150</v>
+      </c>
+      <c r="C72" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>14259</v>
+      </c>
+      <c r="B73" s="1">
+        <v>16731</v>
+      </c>
+      <c r="C73" s="1">
+        <v>20697</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>32</v>
+      </c>
+      <c r="B74" s="1">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>86</v>
+      </c>
+      <c r="B76" s="1">
+        <v>88</v>
+      </c>
+      <c r="C76" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>103</v>
+      </c>
+      <c r="B77" s="1">
+        <v>109</v>
+      </c>
+      <c r="C77" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>195</v>
+      </c>
+      <c r="B78" s="1">
+        <v>215</v>
+      </c>
+      <c r="C78" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>13439</v>
+      </c>
+      <c r="B79" s="1">
+        <v>15185</v>
+      </c>
+      <c r="C79" s="1">
+        <v>17790</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>136</v>
+      </c>
+      <c r="B80" s="1">
+        <v>159</v>
+      </c>
+      <c r="C80" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>8837</v>
+      </c>
+      <c r="B81" s="1">
+        <v>9915</v>
+      </c>
+      <c r="C81" s="1">
+        <v>13056</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>43</v>
+      </c>
+      <c r="B82" s="1">
+        <v>46</v>
+      </c>
+      <c r="C82" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>89147</v>
+      </c>
+      <c r="B83" s="1">
+        <v>100025</v>
+      </c>
+      <c r="C83" s="1">
+        <v>114440</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>32</v>
+      </c>
+      <c r="B85" s="1">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>72</v>
+      </c>
+      <c r="B86" s="1">
+        <v>70</v>
+      </c>
+      <c r="C86" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>23</v>
+      </c>
+      <c r="B87" s="1">
+        <v>21</v>
+      </c>
+      <c r="C87" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>156</v>
+      </c>
+      <c r="B88" s="1">
+        <v>170</v>
+      </c>
+      <c r="C88" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>14</v>
+      </c>
+      <c r="B89" s="1">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>133</v>
+      </c>
+      <c r="B90" s="1">
+        <v>157</v>
+      </c>
+      <c r="C90" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>24</v>
+      </c>
+      <c r="B91" s="1">
+        <v>22</v>
+      </c>
+      <c r="C91" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>137</v>
+      </c>
+      <c r="B92" s="1">
+        <v>159</v>
+      </c>
+      <c r="C92" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>24</v>
+      </c>
+      <c r="B93" s="1">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>43</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42</v>
+      </c>
+      <c r="C94" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>116201</v>
+      </c>
+      <c r="B95" s="1">
+        <v>128519</v>
+      </c>
+      <c r="C95" s="1">
+        <v>157248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>438</v>
+      </c>
+      <c r="B96" s="1">
+        <v>467</v>
+      </c>
+      <c r="C96" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>12513</v>
+      </c>
+      <c r="B97" s="1">
+        <v>14575</v>
+      </c>
+      <c r="C97" s="1">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>42</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42</v>
+      </c>
+      <c r="C98" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>346</v>
+      </c>
+      <c r="B99" s="1">
+        <v>371</v>
+      </c>
+      <c r="C99" s="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>760</v>
+      </c>
+      <c r="B100" s="1">
+        <v>857</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>187</v>
+      </c>
+      <c r="B101" s="1">
+        <v>204</v>
+      </c>
+      <c r="C101" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B102" s="1">
+        <v>51859</v>
+      </c>
+      <c r="C102" s="1">
+        <v>58388</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>161</v>
+      </c>
+      <c r="B103" s="1">
+        <v>186</v>
+      </c>
+      <c r="C103" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>49</v>
+      </c>
+      <c r="B104" s="1">
+        <v>50</v>
+      </c>
+      <c r="C104" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>686</v>
+      </c>
+      <c r="B105" s="1">
+        <v>732</v>
+      </c>
+      <c r="C105" s="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>86</v>
+      </c>
+      <c r="B106" s="1">
+        <v>92</v>
+      </c>
+      <c r="C106" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>65</v>
+      </c>
+      <c r="B107" s="1">
+        <v>120</v>
+      </c>
+      <c r="C107" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>22</v>
+      </c>
+      <c r="B108" s="1">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>714</v>
       </c>
-      <c r="C11">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>257</v>
-      </c>
-      <c r="B12">
-        <v>324</v>
-      </c>
-      <c r="C12">
+      <c r="B109" s="1">
+        <v>781</v>
+      </c>
+      <c r="C109" s="1">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>24</v>
+      </c>
+      <c r="B110" s="1">
+        <v>23</v>
+      </c>
+      <c r="C110" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B111" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>139</v>
+      </c>
+      <c r="B112" s="1">
+        <v>150</v>
+      </c>
+      <c r="C112" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>11392</v>
+      </c>
+      <c r="B113" s="1">
+        <v>13183</v>
+      </c>
+      <c r="C113" s="1">
+        <v>16145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>229367</v>
+      </c>
+      <c r="B114" s="1">
+        <v>265435</v>
+      </c>
+      <c r="C114" s="1">
+        <v>296199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>41</v>
+      </c>
+      <c r="B115" s="1">
+        <v>43</v>
+      </c>
+      <c r="C115" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>229</v>
+      </c>
+      <c r="B116" s="1">
+        <v>236</v>
+      </c>
+      <c r="C116" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>165</v>
+      </c>
+      <c r="B117" s="1">
+        <v>184</v>
+      </c>
+      <c r="C117" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>2869</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3354</v>
+      </c>
+      <c r="C118" s="1">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>112</v>
+      </c>
+      <c r="B119" s="1">
+        <v>166</v>
+      </c>
+      <c r="C119" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>19237</v>
+      </c>
+      <c r="B120" s="1">
+        <v>21942</v>
+      </c>
+      <c r="C120" s="1">
+        <v>27303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>96</v>
+      </c>
+      <c r="B121" s="1">
+        <v>117</v>
+      </c>
+      <c r="C121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>73</v>
+      </c>
+      <c r="B122" s="1">
+        <v>71</v>
+      </c>
+      <c r="C122" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>264332</v>
+      </c>
+      <c r="B123" s="1">
+        <v>304256</v>
+      </c>
+      <c r="C123" s="1">
+        <v>348939</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>23</v>
+      </c>
+      <c r="B124" s="1">
+        <v>23</v>
+      </c>
+      <c r="C124" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>670</v>
+      </c>
+      <c r="B125" s="1">
+        <v>716</v>
+      </c>
+      <c r="C125" s="1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>15</v>
+      </c>
+      <c r="B126" s="1">
+        <v>13</v>
+      </c>
+      <c r="C126" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>129</v>
+      </c>
+      <c r="B127" s="1">
+        <v>193</v>
+      </c>
+      <c r="C127" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>19696</v>
+      </c>
+      <c r="B128" s="1">
+        <v>22904</v>
+      </c>
+      <c r="C128" s="1">
+        <v>28375</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>68</v>
+      </c>
+      <c r="B129" s="1">
+        <v>77</v>
+      </c>
+      <c r="C129" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>35574</v>
+      </c>
+      <c r="B130" s="1">
+        <v>40556</v>
+      </c>
+      <c r="C130" s="1">
+        <v>51645</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>72248</v>
+      </c>
+      <c r="B131" s="1">
+        <v>80944</v>
+      </c>
+      <c r="C131" s="1">
+        <v>97886</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>50</v>
+      </c>
+      <c r="B132" s="1">
+        <v>52</v>
+      </c>
+      <c r="C132" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>245616</v>
+      </c>
+      <c r="B133" s="1">
+        <v>258488</v>
+      </c>
+      <c r="C133" s="1">
+        <v>309992</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>22</v>
+      </c>
+      <c r="B134" s="1">
+        <v>22</v>
+      </c>
+      <c r="C134" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>49</v>
+      </c>
+      <c r="B135" s="1">
+        <v>59</v>
+      </c>
+      <c r="C135" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>7</v>
+      </c>
+      <c r="B136" s="1">
+        <v>5</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>24</v>
+      </c>
+      <c r="B137" s="1">
+        <v>24</v>
+      </c>
+      <c r="C137" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>94</v>
+      </c>
+      <c r="B138" s="1">
+        <v>105</v>
+      </c>
+      <c r="C138" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>18</v>
+      </c>
+      <c r="B139" s="1">
+        <v>20</v>
+      </c>
+      <c r="C139" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>38719</v>
+      </c>
+      <c r="B140" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C140" s="1">
+        <v>53952</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>107</v>
+      </c>
+      <c r="B141" s="1">
+        <v>280</v>
+      </c>
+      <c r="C141" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>105144</v>
+      </c>
+      <c r="B142" s="1">
+        <v>117972</v>
+      </c>
+      <c r="C142" s="1">
+        <v>155992</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>32</v>
+      </c>
+      <c r="B143" s="1">
+        <v>30</v>
+      </c>
+      <c r="C143" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>211</v>
+      </c>
+      <c r="B144" s="1">
+        <v>260</v>
+      </c>
+      <c r="C144" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>17881</v>
+      </c>
+      <c r="B145" s="1">
+        <v>21116</v>
+      </c>
+      <c r="C145" s="1">
+        <v>27888</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>1661</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1907</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>40</v>
+      </c>
+      <c r="B147" s="1">
+        <v>39</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>63</v>
+      </c>
+      <c r="B148" s="1">
+        <v>81</v>
+      </c>
+      <c r="C148" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>24</v>
+      </c>
+      <c r="B149" s="1">
+        <v>23</v>
+      </c>
+      <c r="C149" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>30957</v>
+      </c>
+      <c r="B150" s="1">
+        <v>36822</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>357</v>
+      </c>
+      <c r="B151" s="1">
         <v>366</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>76</v>
-      </c>
-      <c r="B13">
-        <v>97</v>
-      </c>
-      <c r="C13">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12089</v>
-      </c>
-      <c r="B14">
-        <v>15177</v>
-      </c>
-      <c r="C14">
-        <v>18759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1783</v>
-      </c>
-      <c r="B15">
-        <v>2219</v>
-      </c>
-      <c r="C15">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>103</v>
-      </c>
-      <c r="B16">
-        <v>132</v>
-      </c>
-      <c r="C16">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>255</v>
-      </c>
-      <c r="B17">
-        <v>325</v>
-      </c>
-      <c r="C17">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>106</v>
-      </c>
-      <c r="B18">
-        <v>146</v>
-      </c>
-      <c r="C18">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>510</v>
-      </c>
-      <c r="B19">
-        <v>664</v>
-      </c>
-      <c r="C19">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>126</v>
-      </c>
-      <c r="B20">
+      <c r="C151" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>94</v>
+      </c>
+      <c r="B152" s="1">
+        <v>148</v>
+      </c>
+      <c r="C152" s="1">
         <v>179</v>
       </c>
-      <c r="C20">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <v>73</v>
-      </c>
-      <c r="C21">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>115</v>
-      </c>
-      <c r="C22">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>67</v>
-      </c>
-      <c r="B23">
-        <v>78</v>
-      </c>
-      <c r="C23">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>5244</v>
-      </c>
-      <c r="B24">
-        <v>6723</v>
-      </c>
-      <c r="C24">
-        <v>8334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>228</v>
-      </c>
-      <c r="B25">
-        <v>290</v>
-      </c>
-      <c r="C25">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>15</v>
-      </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1841</v>
-      </c>
-      <c r="B27">
-        <v>2378</v>
-      </c>
-      <c r="C27">
-        <v>3064</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>78</v>
-      </c>
-      <c r="B28">
-        <v>95</v>
-      </c>
-      <c r="C28">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>164</v>
-      </c>
-      <c r="B29">
-        <v>190</v>
-      </c>
-      <c r="C29">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>287</v>
-      </c>
-      <c r="B30">
-        <v>365</v>
-      </c>
-      <c r="C30">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>58</v>
-      </c>
-      <c r="B31">
-        <v>75</v>
-      </c>
-      <c r="C31">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>263</v>
-      </c>
-      <c r="B32">
-        <v>349</v>
-      </c>
-      <c r="C32">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>99587</v>
-      </c>
-      <c r="B33">
-        <v>132036</v>
-      </c>
-      <c r="C33">
-        <v>156506</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>71</v>
-      </c>
-      <c r="B34">
-        <v>92</v>
-      </c>
-      <c r="C34">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>94</v>
-      </c>
-      <c r="B35">
-        <v>103</v>
-      </c>
-      <c r="C35">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1646</v>
-      </c>
-      <c r="B36">
-        <v>2100</v>
-      </c>
-      <c r="C36">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>339</v>
-      </c>
-      <c r="B37">
-        <v>489</v>
-      </c>
-      <c r="C37">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>19565</v>
-      </c>
-      <c r="B38">
-        <v>25021</v>
-      </c>
-      <c r="C38">
-        <v>32745</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>88</v>
-      </c>
-      <c r="B39">
-        <v>115</v>
-      </c>
-      <c r="C39">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2678</v>
-      </c>
-      <c r="B40">
-        <v>3356</v>
-      </c>
-      <c r="C40">
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>51</v>
-      </c>
-      <c r="B41">
-        <v>63</v>
-      </c>
-      <c r="C41">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>137</v>
-      </c>
-      <c r="B42">
-        <v>194</v>
-      </c>
-      <c r="C42">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>31</v>
-      </c>
-      <c r="B44">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>5460</v>
-      </c>
-      <c r="B45">
-        <v>7116</v>
-      </c>
-      <c r="C45">
-        <v>8747</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>23</v>
-      </c>
-      <c r="B46">
-        <v>21</v>
-      </c>
-      <c r="C46">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1040</v>
-      </c>
-      <c r="B47">
-        <v>1297</v>
-      </c>
-      <c r="C47">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>3738</v>
-      </c>
-      <c r="B48">
-        <v>4599</v>
-      </c>
-      <c r="C48">
-        <v>5668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>192</v>
-      </c>
-      <c r="B49">
-        <v>231</v>
-      </c>
-      <c r="C49">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>42</v>
-      </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>304</v>
-      </c>
-      <c r="B51">
-        <v>363</v>
-      </c>
-      <c r="C51">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>70704</v>
-      </c>
-      <c r="B52">
-        <v>93708</v>
-      </c>
-      <c r="C52">
-        <v>113025</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>42</v>
-      </c>
-      <c r="B53">
-        <v>44</v>
-      </c>
-      <c r="C53">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>14</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>253</v>
-      </c>
-      <c r="B55">
-        <v>337</v>
-      </c>
-      <c r="C55">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>73</v>
-      </c>
-      <c r="B56">
-        <v>71</v>
-      </c>
-      <c r="C56">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>437</v>
-      </c>
-      <c r="B57">
-        <v>534</v>
-      </c>
-      <c r="C57">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>10330</v>
-      </c>
-      <c r="B58">
-        <v>12853</v>
-      </c>
-      <c r="C58">
-        <v>17037</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>6376</v>
-      </c>
-      <c r="B59">
-        <v>7815</v>
-      </c>
-      <c r="C59">
-        <v>10079</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>942</v>
-      </c>
-      <c r="B60">
-        <v>1195</v>
-      </c>
-      <c r="C60">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>132</v>
-      </c>
-      <c r="B61">
-        <v>175</v>
-      </c>
-      <c r="C61">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>23</v>
-      </c>
-      <c r="B62">
-        <v>26</v>
-      </c>
-      <c r="C62">
+      <c r="B153" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>942</v>
-      </c>
-      <c r="B63">
-        <v>1195</v>
-      </c>
-      <c r="C63">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>23</v>
-      </c>
-      <c r="B64">
-        <v>21</v>
-      </c>
-      <c r="C64">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>19237</v>
-      </c>
-      <c r="B65">
-        <v>24990</v>
-      </c>
-      <c r="C65">
-        <v>30870</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="C153" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>93647</v>
+      </c>
+      <c r="B154" s="1">
+        <v>106631</v>
+      </c>
+      <c r="C154" s="1">
+        <v>121930</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>516</v>
+      </c>
+      <c r="B155" s="1">
+        <v>617</v>
+      </c>
+      <c r="C155" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>8572</v>
+      </c>
+      <c r="B156" s="1">
+        <v>10131</v>
+      </c>
+      <c r="C156" s="1">
+        <v>12321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>2189</v>
+      </c>
+      <c r="B157" s="1">
+        <v>2443</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>329</v>
+      </c>
+      <c r="B158" s="1">
+        <v>376</v>
+      </c>
+      <c r="C158" s="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>139</v>
+      </c>
+      <c r="B159" s="1">
         <v>141</v>
       </c>
-      <c r="B66">
-        <v>167</v>
-      </c>
-      <c r="C66">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>7</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>14</v>
-      </c>
-      <c r="B68">
-        <v>12</v>
-      </c>
-      <c r="C68">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>52</v>
-      </c>
-      <c r="B69">
-        <v>59</v>
-      </c>
-      <c r="C69">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>110</v>
-      </c>
-      <c r="B70">
-        <v>136</v>
-      </c>
-      <c r="C70">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>58</v>
-      </c>
-      <c r="B71">
-        <v>85</v>
-      </c>
-      <c r="C71">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>134</v>
-      </c>
-      <c r="B72">
-        <v>166</v>
-      </c>
-      <c r="C72">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>14259</v>
-      </c>
-      <c r="B73">
-        <v>19109</v>
-      </c>
-      <c r="C73">
-        <v>23102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>32</v>
-      </c>
-      <c r="B74">
-        <v>30</v>
-      </c>
-      <c r="C74">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>24</v>
-      </c>
-      <c r="B75">
-        <v>22</v>
-      </c>
-      <c r="C75">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>86</v>
-      </c>
-      <c r="B76">
-        <v>102</v>
-      </c>
-      <c r="C76">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>103</v>
-      </c>
-      <c r="B77">
-        <v>126</v>
-      </c>
-      <c r="C77">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>195</v>
-      </c>
-      <c r="B78">
-        <v>278</v>
-      </c>
-      <c r="C78">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>13439</v>
-      </c>
-      <c r="B79">
-        <v>17471</v>
-      </c>
-      <c r="C79">
-        <v>20757</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>136</v>
-      </c>
-      <c r="B80">
-        <v>168</v>
-      </c>
-      <c r="C80">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>8837</v>
-      </c>
-      <c r="B81">
-        <v>11591</v>
-      </c>
-      <c r="C81">
-        <v>14659</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>43</v>
-      </c>
-      <c r="B82">
-        <v>55</v>
-      </c>
-      <c r="C82">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>89147</v>
-      </c>
-      <c r="B83">
-        <v>111304</v>
-      </c>
-      <c r="C83">
-        <v>139679</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>13</v>
-      </c>
-      <c r="B84">
-        <v>11</v>
-      </c>
-      <c r="C84">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>32</v>
-      </c>
-      <c r="B85">
-        <v>30</v>
-      </c>
-      <c r="C85">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>72</v>
-      </c>
-      <c r="B86">
-        <v>70</v>
-      </c>
-      <c r="C86">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>23</v>
-      </c>
-      <c r="B87">
-        <v>21</v>
-      </c>
-      <c r="C87">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>156</v>
-      </c>
-      <c r="B88">
-        <v>173</v>
-      </c>
-      <c r="C88">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>14</v>
-      </c>
-      <c r="B89">
-        <v>12</v>
-      </c>
-      <c r="C89">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>133</v>
-      </c>
-      <c r="B90">
-        <v>167</v>
-      </c>
-      <c r="C90">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>24</v>
-      </c>
-      <c r="B91">
-        <v>22</v>
-      </c>
-      <c r="C91">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>137</v>
-      </c>
-      <c r="B92">
+      <c r="C159" s="1">
         <v>172</v>
-      </c>
-      <c r="C92">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>24</v>
-      </c>
-      <c r="B93">
-        <v>22</v>
-      </c>
-      <c r="C93">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>43</v>
-      </c>
-      <c r="B94">
-        <v>47</v>
-      </c>
-      <c r="C94">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>116201</v>
-      </c>
-      <c r="B95">
-        <v>147347</v>
-      </c>
-      <c r="C95">
-        <v>182639</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>438</v>
-      </c>
-      <c r="B96">
-        <v>567</v>
-      </c>
-      <c r="C96">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>12513</v>
-      </c>
-      <c r="B97">
-        <v>16844</v>
-      </c>
-      <c r="C97">
-        <v>20316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>42</v>
-      </c>
-      <c r="B98">
-        <v>47</v>
-      </c>
-      <c r="C98">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>346</v>
-      </c>
-      <c r="B99">
-        <v>405</v>
-      </c>
-      <c r="C99">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>760</v>
-      </c>
-      <c r="B100">
-        <v>933</v>
-      </c>
-      <c r="C100">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>187</v>
-      </c>
-      <c r="B101">
-        <v>224</v>
-      </c>
-      <c r="C101">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>44102</v>
-      </c>
-      <c r="B102">
-        <v>56357</v>
-      </c>
-      <c r="C102">
-        <v>68935</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>161</v>
-      </c>
-      <c r="B103">
-        <v>207</v>
-      </c>
-      <c r="C103">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>49</v>
-      </c>
-      <c r="B104">
-        <v>58</v>
-      </c>
-      <c r="C104">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>686</v>
-      </c>
-      <c r="B105">
-        <v>787</v>
-      </c>
-      <c r="C105">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>86</v>
-      </c>
-      <c r="B106">
-        <v>111</v>
-      </c>
-      <c r="C106">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>65</v>
-      </c>
-      <c r="B107">
-        <v>125</v>
-      </c>
-      <c r="C107">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>22</v>
-      </c>
-      <c r="B108">
-        <v>20</v>
-      </c>
-      <c r="C108">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>714</v>
-      </c>
-      <c r="B109">
-        <v>849</v>
-      </c>
-      <c r="C109">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>24</v>
-      </c>
-      <c r="B110">
-        <v>26</v>
-      </c>
-      <c r="C110">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>1051</v>
-      </c>
-      <c r="B111">
-        <v>1356</v>
-      </c>
-      <c r="C111">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>139</v>
-      </c>
-      <c r="B112">
-        <v>165</v>
-      </c>
-      <c r="C112">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>11392</v>
-      </c>
-      <c r="B113">
-        <v>14622</v>
-      </c>
-      <c r="C113">
-        <v>18511</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>229367</v>
-      </c>
-      <c r="B114">
-        <v>296126</v>
-      </c>
-      <c r="C114">
-        <v>362713</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>41</v>
-      </c>
-      <c r="B115">
-        <v>42</v>
-      </c>
-      <c r="C115">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>229</v>
-      </c>
-      <c r="B116">
-        <v>288</v>
-      </c>
-      <c r="C116">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>165</v>
-      </c>
-      <c r="B117">
-        <v>213</v>
-      </c>
-      <c r="C117">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>2869</v>
-      </c>
-      <c r="B118">
-        <v>3718</v>
-      </c>
-      <c r="C118">
-        <v>4504</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>112</v>
-      </c>
-      <c r="B119">
-        <v>167</v>
-      </c>
-      <c r="C119">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>19237</v>
-      </c>
-      <c r="B120">
-        <v>24990</v>
-      </c>
-      <c r="C120">
-        <v>30870</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>96</v>
-      </c>
-      <c r="B121">
-        <v>117</v>
-      </c>
-      <c r="C121">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>73</v>
-      </c>
-      <c r="B122">
-        <v>71</v>
-      </c>
-      <c r="C122">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>264332</v>
-      </c>
-      <c r="B123">
-        <v>346107</v>
-      </c>
-      <c r="C123">
-        <v>415649</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>23</v>
-      </c>
-      <c r="B124">
-        <v>27</v>
-      </c>
-      <c r="C124">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>670</v>
-      </c>
-      <c r="B125">
-        <v>841</v>
-      </c>
-      <c r="C125">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>15</v>
-      </c>
-      <c r="B126">
-        <v>13</v>
-      </c>
-      <c r="C126">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>129</v>
-      </c>
-      <c r="B127">
-        <v>206</v>
-      </c>
-      <c r="C127">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>19696</v>
-      </c>
-      <c r="B128">
-        <v>25603</v>
-      </c>
-      <c r="C128">
-        <v>32816</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>68</v>
-      </c>
-      <c r="B129">
-        <v>81</v>
-      </c>
-      <c r="C129">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>35574</v>
-      </c>
-      <c r="B130">
-        <v>45245</v>
-      </c>
-      <c r="C130">
-        <v>57469</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>72248</v>
-      </c>
-      <c r="B131">
-        <v>93874</v>
-      </c>
-      <c r="C131">
-        <v>115230</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>50</v>
-      </c>
-      <c r="B132">
-        <v>63</v>
-      </c>
-      <c r="C132">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>245616</v>
-      </c>
-      <c r="B133">
-        <v>257157</v>
-      </c>
-      <c r="C133">
-        <v>311212</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>22</v>
-      </c>
-      <c r="B134">
-        <v>26</v>
-      </c>
-      <c r="C134">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>49</v>
-      </c>
-      <c r="B135">
-        <v>63</v>
-      </c>
-      <c r="C135">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>7</v>
-      </c>
-      <c r="B136">
-        <v>5</v>
-      </c>
-      <c r="C136">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>24</v>
-      </c>
-      <c r="B137">
-        <v>29</v>
-      </c>
-      <c r="C137">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>94</v>
-      </c>
-      <c r="B138">
-        <v>117</v>
-      </c>
-      <c r="C138">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>18</v>
-      </c>
-      <c r="B139">
-        <v>22</v>
-      </c>
-      <c r="C139">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>38719</v>
-      </c>
-      <c r="B140">
-        <v>50428</v>
-      </c>
-      <c r="C140">
-        <v>59863</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>107</v>
-      </c>
-      <c r="B141">
-        <v>255</v>
-      </c>
-      <c r="C141">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>105144</v>
-      </c>
-      <c r="B142">
-        <v>131807</v>
-      </c>
-      <c r="C142">
-        <v>170285</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>32</v>
-      </c>
-      <c r="B143">
-        <v>30</v>
-      </c>
-      <c r="C143">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>211</v>
-      </c>
-      <c r="B144">
-        <v>283</v>
-      </c>
-      <c r="C144">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>17881</v>
-      </c>
-      <c r="B145">
-        <v>23416</v>
-      </c>
-      <c r="C145">
-        <v>30079</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>1661</v>
-      </c>
-      <c r="B146">
-        <v>2169</v>
-      </c>
-      <c r="C146">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>40</v>
-      </c>
-      <c r="B147">
-        <v>42</v>
-      </c>
-      <c r="C147">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>63</v>
-      </c>
-      <c r="B148">
-        <v>93</v>
-      </c>
-      <c r="C148">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>24</v>
-      </c>
-      <c r="B149">
-        <v>26</v>
-      </c>
-      <c r="C149">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>30957</v>
-      </c>
-      <c r="B150">
-        <v>42035</v>
-      </c>
-      <c r="C150">
-        <v>49103</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>357</v>
-      </c>
-      <c r="B151">
-        <v>437</v>
-      </c>
-      <c r="C151">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>94</v>
-      </c>
-      <c r="B152">
-        <v>148</v>
-      </c>
-      <c r="C152">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>34</v>
-      </c>
-      <c r="B153">
-        <v>39</v>
-      </c>
-      <c r="C153">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>93647</v>
-      </c>
-      <c r="B154">
-        <v>121585</v>
-      </c>
-      <c r="C154">
-        <v>149261</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>516</v>
-      </c>
-      <c r="B155">
-        <v>679</v>
-      </c>
-      <c r="C155">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>8572</v>
-      </c>
-      <c r="B156">
-        <v>11400</v>
-      </c>
-      <c r="C156">
-        <v>14067</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>2189</v>
-      </c>
-      <c r="B157">
-        <v>2703</v>
-      </c>
-      <c r="C157">
-        <v>3322</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>329</v>
-      </c>
-      <c r="B158">
-        <v>394</v>
-      </c>
-      <c r="C158">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>139</v>
-      </c>
-      <c r="B159">
-        <v>179</v>
-      </c>
-      <c r="C159">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
